--- a/FileDescriptions.xlsx
+++ b/FileDescriptions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Filename</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>Includes VDOT priority species.</t>
+  </si>
+  <si>
+    <t>ccrm.jpg</t>
+  </si>
+  <si>
+    <t>CCRM logo</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -537,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -599,9 +611,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -631,6 +645,26 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
